--- a/biology/Botanique/Leymus/Leymus.xlsx
+++ b/biology/Botanique/Leymus/Leymus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leymus est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae.
 Ce sont des plantes herbacées vivaces, généralement rhizomateuses, pouvant atteindre 1,5 m de haut, originaires des régions tempérées de l'hémisphère nord, en Eurasie, notamment en Chine où existent 11 espèces endémiques, et en Amérique du Nord.
-Le genre comprend  une cinquantaine d'espèces, souvent polyploïdes, allant de tétraploïdes (2n=4x=28) à octoploïdes (2n=8x=56) et dodécaploïdes (2n=12x=84)[1]. 
+Le genre comprend  une cinquantaine d'espèces, souvent polyploïdes, allant de tétraploïdes (2n=4x=28) à octoploïdes (2n=8x=56) et dodécaploïdes (2n=12x=84). 
 Certaines espèces sont utiles pour la fixation des dunes, quelques-unes sont des plantes ornementales.
-Le nom générique, « Leymus », est une anagramme du nom d'un genre voisin, Elymus[2].
+Le nom générique, « Leymus », est une anagramme du nom d'un genre voisin, Elymus.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (31 mars 2014)[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (31 mars 2014)
 Leymus aemulans (Nevski) Tzvelev (1960)
 Leymus ajanensis (J.J.Vassil.) Tzvelev (1972)
 Leymus akmolinensis (Drobow) Tzvelev (1960)
